--- a/medicine/Enfance/Thomas_Lavachery/Thomas_Lavachery.xlsx
+++ b/medicine/Enfance/Thomas_Lavachery/Thomas_Lavachery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Lavachery, né le 11 septembre 1966 à Bruxelles (province de Brabant), est un historien de l'art, cinéaste, écrivain et scénariste de bande dessinée belge.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thomas Lavachery naît le 11 septembre 1966 à Bruxelles[1]. Il est le petit-fils de l'archéologue Henri Lavachery.
-Il commence par la bande dessinée en faisant paraître des histoires courtes dans l'hebdomadaire de bande dessinée Tintin[2]. Pour le journal La Croix, il adapte en bande dessinée la série télévisée de marionnettes Téléchat, créée par Roland Topor[2]. Il est également auteur de documentaires, et il réalise un film sur l'expédition de son grand-père sur le trois-mâts Mercator à l'Île de Pâques en 1934.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thomas Lavachery naît le 11 septembre 1966 à Bruxelles. Il est le petit-fils de l'archéologue Henri Lavachery.
+Il commence par la bande dessinée en faisant paraître des histoires courtes dans l'hebdomadaire de bande dessinée Tintin. Pour le journal La Croix, il adapte en bande dessinée la série télévisée de marionnettes Téléchat, créée par Roland Topor. Il est également auteur de documentaires, et il réalise un film sur l'expédition de son grand-père sur le trois-mâts Mercator à l'Île de Pâques en 1934.
 Il est surtout connu comme écrivain de romans destinés à un lectorat adolescent ; il rencontre notamment le succès avec les aventures de Bjorn le Morphir (heroic fantasy), qui comptent huit tomes. Il adapte cette saga en bande dessinée avec la collaboration du dessinateur Thomas Gilbert.
 Thomas Lavachery publie aussi des ouvrages pour un public plus jeune : La Colère des MacGregor (écrit en collaboration avec une classe de CM2), Tor et les gnomes, Tor et le troll... Il est par ailleurs auteur-illustrateur d'albums pour enfants : Jojo de la jungle, Padouk s'en va, livre qui traite de la disparition d'un être cher, Ma famille verte, inspiré de l'expérience de sa sœur adoptive...
 Il est également enseignant à l'Université Lille III, où il donne un cours de pratique de l'écriture aux étudiants du master « Littérature de jeunesse ». Depuis 2021, il est également chargé d'un cours de narration à l'IHECS, Institut des hautes études des communications sociales.
-En 2020, 2021 et 2022, il est sélectionné pour le prestigieux prix international suédois, le prix commémoratif Astrid-Lindgren[3],[4], et en 2022, pour le prix Hans-Christian-Andersen[5], catégorie Écriture.
+En 2020, 2021 et 2022, il est sélectionné pour le prestigieux prix international suédois, le prix commémoratif Astrid-Lindgren et en 2022, pour le prix Hans-Christian-Andersen, catégorie Écriture.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vit à Bruxelles[2] et est marié à Nathalie[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vit à Bruxelles et est marié à Nathalie.
 </t>
         </is>
       </c>
@@ -580,8 +596,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Romans jeunesse
-Bjorn le Morphir[7], L'École des Loisirs, 2004. Prix Sorcières, Prix de la Semaine Paul Hurtmans du livre de jeunesse[7].
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bjorn le Morphir, L'École des Loisirs, 2004. Prix Sorcières, Prix de la Semaine Paul Hurtmans du livre de jeunesse.
 Bjorn aux enfers : Le prince oublié, L'École des Loisirs, 2005.
 Bjorn aux enfers II : La Mort du loup, L'École des Loisirs, 2005.
 Bjorn aux enfers III : Au cœur du Tanarbrok, L'École des Loisirs, 2006.
@@ -592,8 +613,8 @@
 Bjorn aux armées I : Le Jarlal, L'École des Loisirs, 2010.
 Bjorn aux armées II : Les Mille Bannières, L'École des Loisirs, 2012.
 Ramulf, L'École des Loisirs, 2015.
-Tor et les gnomes[8], L'École des Loisirs, 2015.
-Tor et le troll[9], L'École des Loisirs, 2015.
+Tor et les gnomes, L'École des Loisirs, 2015.
+Tor et le troll, L'École des Loisirs, 2015.
 Tor et les garnements, L'École des Loisirs, 2017.
 Bjorn aux armées III : La Reconquête, L'École des Loisirs, 2017
 Tor et le prisonnier, L'École des Loisirs, 2018.
@@ -601,27 +622,163 @@
 Le Voyage de Fulmir, L'École des Loisirs, 2019.
 Tor et le cow-boy, L’École des Loisirs, 21 avril 2021, 88 p. (ISBN 978-2211305006)
 Henri dans l'île, L'École des Loisirs, 2022, 230 p.  (ISBN 9782211315647)
-Les Enfants de Chatom, L'École des Loisirs, 2024, 205 p.
-Albums jeunesse
-Jojo de la jungle[10], L'École des Loisirs, 2010.
+Les Enfants de Chatom, L'École des Loisirs, 2024, 205 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Thomas_Lavachery</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thomas_Lavachery</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Albums jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jojo de la jungle, L'École des Loisirs, 2010.
 J'irai voir les Sioux, L'École des Loisirs, 2011.
 Padouk s'en va, L'École des Loisirs, 2011.
 Trois histoires de Jojo de la jungle, L'École des Loisirs, 2013.
-Roussette et les Zaffreux[11], Pastel, 2016.
+Roussette et les Zaffreux, Pastel, 2016.
 Ma famille verte, Pastel, 2017.
 Lilly sous la mer, Pastel, 2021.
-Potomoc. Pour les artistes du coloriage, L’École des Loisirs, 2024.
-Récits, essais
-Île de Pâques 1934, deux hommes pour un mystère, Labor, 2005.
+Potomoc. Pour les artistes du coloriage, L’École des Loisirs, 2024.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Thomas_Lavachery</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thomas_Lavachery</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Récits, essais</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Île de Pâques 1934, deux hommes pour un mystère, Labor, 2005.
 Itatinémaux, Éditions Aden, 2014.
 Thomas Lavachery, la cuisine d'un auteur, Fédération Wallonie-Bruxelles, 2019.
 Un zoo à soi, L’École des Loisirs, 21 avril 2021, 128 p. (ISBN 978-2211305389)
-L’Artisanat du roman. Initiation à l’écriture créative, L’École des lettres, 2024, 302 p. (ISBN 9782211321181)
-Littérature générale
-Le Cercle, Esperluète Éditions, 2021.
-Le Netsuke, Esperluète Éditions, 2022.
-Bandes dessinées
-En collaboration avec Thomas Gilbert
+L’Artisanat du roman. Initiation à l’écriture créative, L’École des lettres, 2024, 302 p. (ISBN 9782211321181)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Thomas_Lavachery</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thomas_Lavachery</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Littérature générale</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Cercle, Esperluète Éditions, 2021.
+Le Netsuke, Esperluète Éditions, 2022.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Thomas_Lavachery</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thomas_Lavachery</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>En collaboration avec Thomas Gilbert
 Bjorn le Morphir 1 : Naissance d'un morphir, Rue de Sèvres, 2015 (réédition).
 Bjorn le Morphir 2 : Dans l'enfer des enfers, Rue de Sèvres, 2015 (réédition).
 Bjorn le Morphir 3 : La reine des enfers, Rue de Sèvres, 2015 (réédition).
@@ -632,73 +789,77 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Thomas_Lavachery</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Thomas_Lavachery</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Thomas_Lavachery</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thomas_Lavachery</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Un monde sans père ni mari, documentaire réalisé avec Éric Blavier, Y.C. Aligator Film, 2000.
-L'Homme de Pâques[12], documentaire réalisé avec Denis Roussel, Y.C. Aligator Film, 2002.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Thomas_Lavachery</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Thomas_Lavachery</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+L'Homme de Pâques, documentaire réalisé avec Denis Roussel, Y.C. Aligator Film, 2002.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Thomas_Lavachery</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thomas_Lavachery</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2005 : Prix Libbylit[13], décerné par l'IBBY, pour Bjorn aux enfers ;
-2006 :  Prix Sorcières pour Bjorn le Morphir[7] ;
-2008 : (international) « Honour List »[14] de l'IBBY, pour Bjorn le Morphir ;
-2012 : Prix de la Semaine Paul Hurtmans du livre de jeunesse[15] pour Bjorn le Morphir ;
-2015 : Prix Libbylit[13], décerné par l'IBBY pour Ramulf
-2018-2021 : Grand prix triennal de littérature de jeunesse de la Fédération Wallonie-Bruxelles[16] pour l'ensemble de son œuvre ;
-2020, 2021 et 2022 :  Sélections Prix commémoratif Astrid-Lindgren[3],[4] ;
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2005 : Prix Libbylit, décerné par l'IBBY, pour Bjorn aux enfers ;
+2006 :  Prix Sorcières pour Bjorn le Morphir ;
+2008 : (international) « Honour List » de l'IBBY, pour Bjorn le Morphir ;
+2012 : Prix de la Semaine Paul Hurtmans du livre de jeunesse pour Bjorn le Morphir ;
+2015 : Prix Libbylit, décerné par l'IBBY pour Ramulf
+2018-2021 : Grand prix triennal de littérature de jeunesse de la Fédération Wallonie-Bruxelles pour l'ensemble de son œuvre ;
+2020, 2021 et 2022 :  Sélections Prix commémoratif Astrid-Lindgren, ;
 2022 :
- Sélection Prix Hans-Christian-Andersen[5], dans la catégorie Écriture ;
- Prix Sorcières[17] Catégorie Carrément passionnant mini, pour Lilly sous la mer.</t>
+ Sélection Prix Hans-Christian-Andersen, dans la catégorie Écriture ;
+ Prix Sorcières Catégorie Carrément passionnant mini, pour Lilly sous la mer.</t>
         </is>
       </c>
     </row>
